--- a/CV Doc/Titulacion  Dr Bouzas.xlsx
+++ b/CV Doc/Titulacion  Dr Bouzas.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\afchavez19\CV Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="2130" tabRatio="500"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AMK$1</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -512,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,6 +523,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,7 +590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,7 +625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -801,7 +802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -811,18 +812,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
     <col min="8" max="1025" width="11.42578125" style="1"/>
   </cols>
@@ -831,7 +832,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -854,7 +855,7 @@
       <c r="A2" s="1">
         <v>96561609</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -877,7 +878,7 @@
       <c r="A3" s="1">
         <v>96561609</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -900,7 +901,7 @@
       <c r="A4" s="1">
         <v>96527513</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -923,7 +924,7 @@
       <c r="A5" s="1">
         <v>96562668</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -946,7 +947,7 @@
       <c r="A6" s="1">
         <v>96562668</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -969,7 +970,7 @@
       <c r="A7" s="1">
         <v>96527582</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -992,7 +993,7 @@
       <c r="A8" s="1">
         <v>96527582</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1015,7 +1016,7 @@
       <c r="A9" s="1">
         <v>91359782</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1038,7 +1039,7 @@
       <c r="A10" s="1">
         <v>91359782</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1061,7 +1062,7 @@
       <c r="A11" s="1">
         <v>400053620</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1084,7 +1085,7 @@
       <c r="A12" s="1">
         <v>400074159</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1103,11 +1104,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>97105673</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1130,7 +1131,7 @@
       <c r="A14" s="1">
         <v>97105673</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1153,7 +1154,7 @@
       <c r="A15" s="1">
         <v>400052238</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1176,7 +1177,7 @@
       <c r="A16" s="1">
         <v>403099661</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1199,7 +1200,7 @@
       <c r="A17" s="1">
         <v>402057112</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1222,7 +1223,7 @@
       <c r="A18" s="1">
         <v>402057112</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1245,7 +1246,7 @@
       <c r="A19" s="1">
         <v>302009194</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1268,7 +1269,7 @@
       <c r="A20" s="1">
         <v>301127468</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1291,7 +1292,7 @@
       <c r="A21" s="1">
         <v>304113404</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1314,7 +1315,7 @@
       <c r="A22" s="1">
         <v>405005569</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1337,7 +1338,7 @@
       <c r="A23" s="1">
         <v>405005569</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1360,7 +1361,7 @@
       <c r="A24" s="1">
         <v>406065807</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1383,7 +1384,7 @@
       <c r="A25" s="1">
         <v>305142117</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1406,7 +1407,7 @@
       <c r="A26" s="1">
         <v>304304639</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1429,7 +1430,7 @@
       <c r="A27" s="1">
         <v>306309379</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1452,7 +1453,7 @@
       <c r="A28" s="1">
         <v>306309379</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1475,7 +1476,7 @@
       <c r="A29" s="1">
         <v>103003357</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1498,7 +1499,7 @@
       <c r="A30" s="1">
         <v>306151549</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1521,7 +1522,7 @@
       <c r="A31" s="1">
         <v>306046276</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1544,7 +1545,7 @@
       <c r="A32" s="1">
         <v>306614794</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1567,7 +1568,7 @@
       <c r="A33" s="1">
         <v>307055495</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1590,7 +1591,7 @@
       <c r="A34" s="1">
         <v>307131467</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1613,7 +1614,7 @@
       <c r="A35" s="1">
         <v>307249298</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1636,7 +1637,7 @@
       <c r="A36" s="1">
         <v>303158329</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1659,7 +1660,7 @@
       <c r="A37" s="1">
         <v>303158329</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1682,7 +1683,7 @@
       <c r="A38" s="1">
         <v>306534793</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1705,7 +1706,7 @@
       <c r="A39" s="1">
         <v>307184322</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1728,7 +1729,7 @@
       <c r="A40" s="1">
         <v>307184322</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1751,7 +1752,7 @@
       <c r="A41" s="1">
         <v>307193940</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1774,7 +1775,7 @@
       <c r="A42" s="1">
         <v>307193940</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1797,7 +1798,7 @@
       <c r="A43" s="1">
         <v>306067891</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1820,7 +1821,7 @@
       <c r="A44" s="1">
         <v>308510173</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1843,7 +1844,7 @@
       <c r="A45" s="1">
         <v>304112373</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1866,7 +1867,7 @@
       <c r="A46" s="1">
         <v>304112373</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1889,7 +1890,7 @@
       <c r="A47" s="1">
         <v>307210722</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1912,7 +1913,7 @@
       <c r="A48" s="1">
         <v>309226352</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1935,7 +1936,7 @@
       <c r="A49" s="1">
         <v>309226352</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1958,7 +1959,7 @@
       <c r="A50" s="1">
         <v>310260761</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1981,7 +1982,7 @@
       <c r="A51" s="1">
         <v>310260761</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2004,7 +2005,7 @@
       <c r="A52" s="1">
         <v>309302159</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2023,11 +2024,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>104003329</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2050,7 +2051,7 @@
       <c r="A54" s="1">
         <v>104003329</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2073,7 +2074,7 @@
       <c r="A55" s="1">
         <v>311168402</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2096,7 +2097,7 @@
       <c r="A56" s="1">
         <v>311168402</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2119,7 +2120,7 @@
       <c r="A57" s="1">
         <v>309187958</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2142,7 +2143,7 @@
       <c r="A58" s="1">
         <v>309187958</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2165,7 +2166,7 @@
       <c r="A59" s="1">
         <v>309248259</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2188,7 +2189,7 @@
       <c r="A60" s="1">
         <v>309248259</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2211,7 +2212,7 @@
       <c r="A61" s="1">
         <v>107005535</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2234,7 +2235,7 @@
       <c r="A62" s="1">
         <v>412015230</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2257,7 +2258,7 @@
       <c r="A63" s="1">
         <v>412015230</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2280,7 +2281,7 @@
       <c r="A64" s="1">
         <v>308710359</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2303,7 +2304,7 @@
       <c r="A65" s="1">
         <v>308710359</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2323,7 +2324,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G65"/>
+  <autoFilter ref="A1:AMK1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
